--- a/both_state_and_action_information_unique_strategies_and_frequency.xlsx
+++ b/both_state_and_action_information_unique_strategies_and_frequency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>final_point</t>
   </si>
@@ -88,6 +88,10 @@
   [0. 1.]
   [0. 1.]
   [1. 0.]]]</t>
+  </si>
+  <si>
+    <t>[[0. 1. 0. 0. 0. 0. 0. 0.]
+ [0. 1. 0. 0. 0. 0. 0. 0.]]</t>
   </si>
   <si>
     <t>[[[0. 1.]
@@ -1949,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6">
         <v>5.2</v>
@@ -1957,7 +1961,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -1971,13 +1975,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="222.75">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6">
         <v>1.4</v>
@@ -1985,13 +1989,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="222.75">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6">
         <v>1.3</v>
@@ -1999,13 +2003,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="222.75">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6">
         <v>0.8</v>
@@ -2013,13 +2017,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="222.75">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" s="6">
         <v>0.8</v>
@@ -2027,13 +2031,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="222.75">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6">
         <v>0.8</v>
@@ -2041,13 +2045,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="222.75">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="6">
         <v>0.7</v>
@@ -2055,13 +2059,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="222.75">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6">
         <v>0.6</v>
@@ -2069,13 +2073,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="222.75">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="6">
         <v>0.6</v>
@@ -2083,13 +2087,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="222.75">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" s="6">
         <v>0.4</v>
@@ -2097,13 +2101,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="222.75">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" s="6">
         <v>0.4</v>
@@ -2111,13 +2115,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="222.75">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" s="6">
         <v>0.4</v>
@@ -2125,13 +2129,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="222.75">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" s="6">
         <v>0.3</v>
@@ -2139,13 +2143,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="222.75">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D18" s="6">
         <v>0.3</v>
@@ -2153,13 +2157,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="222.75">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D19" s="6">
         <v>0.3</v>
@@ -2167,13 +2171,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="222.75">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D20" s="6">
         <v>0.3</v>
@@ -2181,13 +2185,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="222.75">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21" s="6">
         <v>0.3</v>
@@ -2195,13 +2199,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="222.75">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D22" s="6">
         <v>0.3</v>
@@ -2209,13 +2213,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="222.75">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D23" s="6">
         <v>0.3</v>
@@ -2223,13 +2227,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="222.75">
       <c r="A24" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D24" s="6">
         <v>0.3</v>
@@ -2237,13 +2241,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="222.75">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D25" s="6">
         <v>0.3</v>
@@ -2251,13 +2255,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="222.75">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D26" s="6">
         <v>0.2</v>
@@ -2265,13 +2269,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="222.75">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D27" s="6">
         <v>0.2</v>
@@ -2279,13 +2283,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="222.75">
       <c r="A28" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D28" s="6">
         <v>0.2</v>
@@ -2293,13 +2297,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="222.75">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D29" s="6">
         <v>0.2</v>
@@ -2307,13 +2311,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="222.75">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D30" s="6">
         <v>0.2</v>
@@ -2321,13 +2325,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="222.75">
       <c r="A31" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D31" s="6">
         <v>0.2</v>
@@ -2335,13 +2339,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="222.75">
       <c r="A32" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D32" s="6">
         <v>0.2</v>
@@ -2349,13 +2353,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="222.75">
       <c r="A33" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D33" s="6">
         <v>0.2</v>
@@ -2363,13 +2367,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="222.75">
       <c r="A34" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D34" s="6">
         <v>0.2</v>
@@ -2377,13 +2381,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="222.75">
       <c r="A35" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D35" s="6">
         <v>0.2</v>
@@ -2391,13 +2395,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="222.75">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D36" s="6">
         <v>0.2</v>
@@ -2405,13 +2409,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D37" s="6">
         <v>0.2</v>
@@ -2419,13 +2423,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D38" s="6">
         <v>0.2</v>
@@ -2433,13 +2437,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D39" s="6">
         <v>0.2</v>
@@ -2447,13 +2451,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D40" s="6">
         <v>0.2</v>
@@ -2461,13 +2465,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D41" s="6">
         <v>0.2</v>
@@ -2475,13 +2479,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D42" s="6">
         <v>0.1</v>
@@ -2489,13 +2493,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D43" s="6">
         <v>0.1</v>
@@ -2503,13 +2507,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D44" s="6">
         <v>0.1</v>
@@ -2517,13 +2521,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D45" s="6">
         <v>0.1</v>
@@ -2531,13 +2535,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D46" s="6">
         <v>0.1</v>
@@ -2545,13 +2549,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="5">
         <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D47" s="6">
         <v>0.1</v>
@@ -2559,13 +2563,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D48" s="6">
         <v>0.1</v>
@@ -2573,13 +2577,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D49" s="6">
         <v>0.1</v>
@@ -2587,13 +2591,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D50" s="6">
         <v>0.1</v>
@@ -2601,13 +2605,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D51" s="6">
         <v>0.1</v>
@@ -2615,13 +2619,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D52" s="6">
         <v>0.1</v>
@@ -2629,13 +2633,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D53" s="6">
         <v>0.1</v>
@@ -2643,13 +2647,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D54" s="6">
         <v>0.1</v>
@@ -2657,13 +2661,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D55" s="6">
         <v>0.1</v>
@@ -2671,13 +2675,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D56" s="6">
         <v>0.1</v>
@@ -2685,13 +2689,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D57" s="6">
         <v>0.1</v>
@@ -2699,13 +2703,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D58" s="6">
         <v>0.1</v>
@@ -2713,13 +2717,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D59" s="6">
         <v>0.1</v>
@@ -2727,13 +2731,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" s="5">
         <v>1</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D60" s="6">
         <v>0.1</v>
@@ -2741,13 +2745,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" s="5">
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D61" s="6">
         <v>0.1</v>
@@ -2755,13 +2759,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D62" s="6">
         <v>0.1</v>
@@ -2769,13 +2773,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" s="5">
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D63" s="6">
         <v>0.1</v>
@@ -2783,13 +2787,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D64" s="6">
         <v>0.1</v>
@@ -2797,13 +2801,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D65" s="6">
         <v>0.1</v>
@@ -2811,13 +2815,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" s="5">
         <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D66" s="6">
         <v>0.1</v>
@@ -2825,13 +2829,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" s="5">
         <v>1</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D67" s="6">
         <v>0.1</v>
@@ -2839,13 +2843,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" s="5">
         <v>1</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D68" s="6">
         <v>0.1</v>
@@ -2853,13 +2857,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" s="5">
         <v>1</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D69" s="6">
         <v>0.1</v>
@@ -2867,13 +2871,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" s="5">
         <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D70" s="6">
         <v>0.1</v>
@@ -2881,13 +2885,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" s="5">
         <v>1</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D71" s="6">
         <v>0.1</v>
@@ -2895,13 +2899,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" s="5">
         <v>1</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D72" s="6">
         <v>0.1</v>
@@ -2909,13 +2913,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="5">
         <v>1</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D73" s="6">
         <v>0.1</v>
@@ -2923,13 +2927,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="5">
         <v>1</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D74" s="6">
         <v>0.1</v>
@@ -2937,13 +2941,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="5">
         <v>1</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D75" s="6">
         <v>0.1</v>
@@ -2951,13 +2955,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="5">
         <v>1</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D76" s="6">
         <v>0.1</v>
@@ -2965,13 +2969,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="5">
         <v>1</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D77" s="6">
         <v>0.1</v>
@@ -2979,13 +2983,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="5">
         <v>1</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D78" s="6">
         <v>0.1</v>
@@ -2993,13 +2997,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="5">
         <v>1</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D79" s="6">
         <v>0.1</v>
@@ -3007,13 +3011,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="5">
         <v>1</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D80" s="6">
         <v>0.1</v>
@@ -3021,13 +3025,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="5">
         <v>1</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D81" s="6">
         <v>0.1</v>
@@ -3035,13 +3039,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="5">
         <v>1</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D82" s="6">
         <v>0.1</v>
